--- a/src/main/resources/fileTemplate/shipInfoTemplate.xlsx
+++ b/src/main/resources/fileTemplate/shipInfoTemplate.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\wms-core\src\main\resources\fileTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="出仓记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>出仓记录</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>SO</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>ITEM</t>
   </si>
   <si>
     <t>物料号</t>
@@ -69,6 +75,21 @@
   </si>
   <si>
     <t>币种</t>
+  </si>
+  <si>
+    <t>库位</t>
+  </si>
+  <si>
+    <t>入仓号</t>
+  </si>
+  <si>
+    <t>原产国</t>
+  </si>
+  <si>
+    <t>最终目的国</t>
+  </si>
+  <si>
+    <t>商检提醒</t>
   </si>
 </sst>
 </file>
@@ -83,7 +104,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,13 +114,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -122,16 +136,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,28 +179,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -446,112 +523,131 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>